--- a/routes/Routes_structure.xlsx
+++ b/routes/Routes_structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc01zcg\Documents\GitHub\Passion_lecture\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDA0D8C-C461-41A1-8BCF-A42A33B3BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23584C1B-754E-403D-BC9F-563BF75C1A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>JSON</t>
   </si>
@@ -315,12 +315,51 @@
   <si>
     <t>GET : Récupérer une catégorie precise</t>
   </si>
+  <si>
+    <t>Verbe HTTP</t>
+  </si>
+  <si>
+    <t>api/login</t>
+  </si>
+  <si>
+    <t>{
+"username":
+"password":
+}</t>
+  </si>
+  <si>
+    <t>/api/books/</t>
+  </si>
+  <si>
+    <t>/api/books/1</t>
+  </si>
+  <si>
+    <t>./api/books/1</t>
+  </si>
+  <si>
+    <t>/api/books/1/comments</t>
+  </si>
+  <si>
+    <t>/api/books/1/evaluer</t>
+  </si>
+  <si>
+    <t>/api/categories/</t>
+  </si>
+  <si>
+    <t>/api/authors</t>
+  </si>
+  <si>
+    <t>/api/authors/1</t>
+  </si>
+  <si>
+    <t>/api/authors/1/books</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +375,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -432,6 +483,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,19 +770,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -739,8 +799,20 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,8 +823,18 @@
       <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="H2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -765,8 +847,16 @@
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -779,8 +869,16 @@
       <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -791,8 +889,16 @@
       <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -803,8 +909,18 @@
       <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="H6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,8 +936,18 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,8 +961,16 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -849,8 +983,16 @@
       <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -861,36 +1003,94 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
+      <c r="H15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
